--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H2">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I2">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J2">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +561,22 @@
         <v>0.119697</v>
       </c>
       <c r="O2">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P2">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q2">
-        <v>0.05361707417999999</v>
+        <v>0.0315141653015</v>
       </c>
       <c r="R2">
-        <v>0.32170244508</v>
+        <v>0.189084991809</v>
       </c>
       <c r="S2">
-        <v>0.01728128514859455</v>
+        <v>0.009541510729212293</v>
       </c>
       <c r="T2">
-        <v>0.01450661821062567</v>
+        <v>0.008081965972410777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H3">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I3">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J3">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +617,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N3">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O3">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P3">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q3">
-        <v>0.06722392359</v>
+        <v>0.0456003234505</v>
       </c>
       <c r="R3">
-        <v>0.26889569436</v>
+        <v>0.182401293802</v>
       </c>
       <c r="S3">
-        <v>0.02166690014576475</v>
+        <v>0.01380636203738473</v>
       </c>
       <c r="T3">
-        <v>0.01212538865096776</v>
+        <v>0.007796287985249277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +667,10 @@
         <v>95.29137</v>
       </c>
       <c r="I4">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J4">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,10 +685,10 @@
         <v>0.119697</v>
       </c>
       <c r="O4">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P4">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q4">
         <v>1.26734345721</v>
@@ -700,10 +697,10 @@
         <v>11.40609111489</v>
       </c>
       <c r="S4">
-        <v>0.4084766653198166</v>
+        <v>0.3837122474568809</v>
       </c>
       <c r="T4">
-        <v>0.5143380524763244</v>
+        <v>0.487524892308085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,10 +729,10 @@
         <v>95.29137</v>
       </c>
       <c r="I5">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J5">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +741,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N5">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O5">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P5">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q5">
-        <v>1.588967712855</v>
+        <v>1.83381888807</v>
       </c>
       <c r="R5">
-        <v>9.533806277129999</v>
+        <v>11.00291332842</v>
       </c>
       <c r="S5">
-        <v>0.5121391750242152</v>
+        <v>0.5552234186929023</v>
       </c>
       <c r="T5">
-        <v>0.429910589339781</v>
+        <v>0.4702920642559575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H6">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I6">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J6">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,22 +809,22 @@
         <v>0.119697</v>
       </c>
       <c r="O6">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P6">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q6">
-        <v>0.04974613304849999</v>
+        <v>0.048308991018</v>
       </c>
       <c r="R6">
-        <v>0.298476798291</v>
+        <v>0.289853946108</v>
       </c>
       <c r="S6">
-        <v>0.01603364456935855</v>
+        <v>0.01462646247190078</v>
       </c>
       <c r="T6">
-        <v>0.01345929763281942</v>
+        <v>0.01238908337992345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -850,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H7">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I7">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J7">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +865,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N7">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O7">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P7">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q7">
-        <v>0.06237062163674999</v>
+        <v>0.069902077206</v>
       </c>
       <c r="R7">
-        <v>0.249482486547</v>
+        <v>0.279608308824</v>
       </c>
       <c r="S7">
-        <v>0.02010263547356767</v>
+        <v>0.02116417849796355</v>
       </c>
       <c r="T7">
-        <v>0.0112499834487577</v>
+        <v>0.01195115918983969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +894,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H8">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I8">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J8">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +933,22 @@
         <v>0.119697</v>
       </c>
       <c r="O8">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P8">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q8">
-        <v>0.002455264763</v>
+        <v>0.002599406550333333</v>
       </c>
       <c r="R8">
-        <v>0.022097382867</v>
+        <v>0.023394658953</v>
       </c>
       <c r="S8">
-        <v>0.0007913548274241065</v>
+        <v>0.0007870195911046291</v>
       </c>
       <c r="T8">
-        <v>0.0009964434576363705</v>
+        <v>0.0009999462981456024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +956,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -974,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H9">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I9">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J9">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,152 +989,28 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N9">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O9">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P9">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q9">
-        <v>0.0030783576565</v>
+        <v>0.003761285705666667</v>
       </c>
       <c r="R9">
-        <v>0.018470145939</v>
+        <v>0.022567714234</v>
       </c>
       <c r="S9">
-        <v>0.0009921835024556307</v>
+        <v>0.001138800522650782</v>
       </c>
       <c r="T9">
-        <v>0.0008328794497193851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.260443</v>
-      </c>
-      <c r="I10">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J10">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.039899</v>
-      </c>
-      <c r="N10">
-        <v>0.119697</v>
-      </c>
-      <c r="O10">
-        <v>0.4436993666839036</v>
-      </c>
-      <c r="P10">
-        <v>0.5447061607492286</v>
-      </c>
-      <c r="Q10">
-        <v>0.003463805085666666</v>
-      </c>
-      <c r="R10">
-        <v>0.031174245771</v>
-      </c>
-      <c r="S10">
-        <v>0.001116416818709701</v>
-      </c>
-      <c r="T10">
-        <v>0.001405748971822856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.260443</v>
-      </c>
-      <c r="I11">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J11">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.0500245</v>
-      </c>
-      <c r="N11">
-        <v>0.100049</v>
-      </c>
-      <c r="O11">
-        <v>0.5563006333160965</v>
-      </c>
-      <c r="P11">
-        <v>0.4552938392507713</v>
-      </c>
-      <c r="Q11">
-        <v>0.004342843617833333</v>
-      </c>
-      <c r="R11">
-        <v>0.026057061707</v>
-      </c>
-      <c r="S11">
-        <v>0.00139973917009307</v>
-      </c>
-      <c r="T11">
-        <v>0.001174998361545443</v>
+        <v>0.0009646006103885657</v>
       </c>
     </row>
   </sheetData>
